--- a/wind-tax-incentive-2000-simulation.xlsx
+++ b/wind-tax-incentive-2000-simulation.xlsx
@@ -460,16 +460,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10315.42163991847</v>
+        <v>10314.96870416212</v>
       </c>
       <c r="C2" t="n">
-        <v>1137.02213115227</v>
+        <v>1137.048971475697</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2019.214425800143</v>
+        <v>51.57237325372022</v>
       </c>
     </row>
     <row r="3">
@@ -477,16 +477,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9947.660439434536</v>
+        <v>9947.652735638645</v>
       </c>
       <c r="C3" t="n">
-        <v>1061.339586066573</v>
+        <v>1061.343451223388</v>
       </c>
       <c r="D3" t="n">
-        <v>8.255069044602871e-07</v>
+        <v>0.003809329899844486</v>
       </c>
       <c r="E3" t="n">
-        <v>44.40327040024239</v>
+        <v>26.77575930139166</v>
       </c>
     </row>
     <row r="4">
@@ -494,16 +494,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9734.03829388482</v>
+        <v>9734.023432867902</v>
       </c>
       <c r="C4" t="n">
-        <v>1091.961723324539</v>
+        <v>1091.969206968414</v>
       </c>
       <c r="D4" t="n">
-        <v>1.733159868092717e-06</v>
+        <v>0.007352813718247232</v>
       </c>
       <c r="E4" t="n">
-        <v>44.22186784688881</v>
+        <v>26.02328444446929</v>
       </c>
     </row>
     <row r="5">
@@ -511,16 +511,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9971.392487778119</v>
+        <v>9971.390418345916</v>
       </c>
       <c r="C5" t="n">
-        <v>846.6076433395069</v>
+        <v>846.6086257249831</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.0009549744956388541</v>
       </c>
       <c r="E5" t="n">
-        <v>44.31436161080218</v>
+        <v>26.50409016356395</v>
       </c>
     </row>
     <row r="6">
@@ -528,16 +528,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9724.808201011616</v>
+        <v>9725.030365384224</v>
       </c>
       <c r="C6" t="n">
-        <v>1393.193015570164</v>
+        <v>1393.179520135162</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>40.48793828745531</v>
+        <v>25.76604694961907</v>
       </c>
     </row>
     <row r="7">
@@ -545,16 +545,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11155.89015614436</v>
+        <v>11155.89074980436</v>
       </c>
       <c r="C7" t="n">
-        <v>1086.109736458188</v>
+        <v>1086.109441118614</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0001072928948135691</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>53.24196590060887</v>
+        <v>34.14055839263712</v>
       </c>
     </row>
     <row r="8">
@@ -562,16 +562,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13156.91813364258</v>
+        <v>13157.20886314176</v>
       </c>
       <c r="C8" t="n">
-        <v>1131.081781610986</v>
+        <v>1131.0451624013</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0001030262414023945</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>69.96962298877193</v>
+        <v>1241.578527576742</v>
       </c>
     </row>
     <row r="9">
@@ -579,16 +579,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14369.80868909351</v>
+        <v>14369.81048188189</v>
       </c>
       <c r="C9" t="n">
-        <v>1423.190971981739</v>
+        <v>1423.190521714969</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0003385852815848243</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>71.11278420725833</v>
+        <v>59.94171795701301</v>
       </c>
     </row>
     <row r="10">
@@ -596,16 +596,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15340.74707357211</v>
+        <v>15340.7662684434</v>
       </c>
       <c r="C10" t="n">
-        <v>956.241517251622</v>
+        <v>956.2318381912708</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01139777901105398</v>
+        <v>0.001891467046234741</v>
       </c>
       <c r="E10" t="n">
-        <v>101.9506017924114</v>
+        <v>90.89593464684542</v>
       </c>
     </row>
     <row r="11">
@@ -613,16 +613,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15797.28426729024</v>
+        <v>15797.19812095251</v>
       </c>
       <c r="C11" t="n">
-        <v>688.4597343669304</v>
+        <v>688.4644793483199</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>317.0217552490086</v>
+        <v>124.8721159062198</v>
       </c>
     </row>
     <row r="12">
@@ -630,16 +630,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>15601.62757446438</v>
+        <v>15601.2453414222</v>
       </c>
       <c r="C12" t="n">
-        <v>1004.807486881802</v>
+        <v>1004.841701245292</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>925.1015742497424</v>
+        <v>911.7515309425046</v>
       </c>
     </row>
     <row r="13">
@@ -647,16 +647,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>15712.4941090649</v>
+        <v>15712.73376163926</v>
       </c>
       <c r="C13" t="n">
-        <v>907.4492935258028</v>
+        <v>907.3790141614638</v>
       </c>
       <c r="D13" t="n">
-        <v>0.05654087978405688</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>103.3052989362481</v>
+        <v>92.31788000091503</v>
       </c>
     </row>
     <row r="14">
@@ -664,16 +664,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>15500.24087103489</v>
+        <v>15500.19166164785</v>
       </c>
       <c r="C14" t="n">
-        <v>1013.869059881286</v>
+        <v>1013.874528559377</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>102.3254185799073</v>
+        <v>91.33461013410728</v>
       </c>
     </row>
     <row r="15">
@@ -681,16 +681,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>15354.29744722685</v>
+        <v>15354.30981450339</v>
       </c>
       <c r="C15" t="n">
-        <v>1131.693638042311</v>
+        <v>1131.687446450601</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00890582543913521</v>
+        <v>0.002736306537577427</v>
       </c>
       <c r="E15" t="n">
-        <v>101.9327442406601</v>
+        <v>90.86087968408252</v>
       </c>
     </row>
     <row r="16">
@@ -698,16 +698,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15371.62496450494</v>
+        <v>15371.35038634145</v>
       </c>
       <c r="C16" t="n">
-        <v>1053.619630592336</v>
+        <v>1053.648960147255</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.0006528572993536304</v>
       </c>
       <c r="E16" t="n">
-        <v>101.9595938707997</v>
+        <v>90.91363352037592</v>
       </c>
     </row>
     <row r="17">
@@ -715,16 +715,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>15128.14500251492</v>
+        <v>15128.14629031511</v>
       </c>
       <c r="C17" t="n">
-        <v>1349.854462689058</v>
+        <v>1349.853852900754</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0005342634474277375</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>82.34055747015158</v>
+        <v>62.35338051531676</v>
       </c>
     </row>
     <row r="18">
@@ -732,16 +732,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>15270.67768556608</v>
+        <v>15270.676368611</v>
       </c>
       <c r="C18" t="n">
-        <v>1564.323627717711</v>
+        <v>1564.323693221007</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>101.4416273082025</v>
+        <v>90.44376327914895</v>
       </c>
     </row>
     <row r="19">
@@ -749,16 +749,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>15766.68257490945</v>
+        <v>15766.68309107493</v>
       </c>
       <c r="C19" t="n">
-        <v>1519.572935279753</v>
+        <v>1519.572913926675</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>710.4809845963754</v>
+        <v>612.0625075849524</v>
       </c>
     </row>
     <row r="20">
@@ -766,16 +766,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>16005.92951827021</v>
+        <v>16005.93059440604</v>
       </c>
       <c r="C20" t="n">
-        <v>1759.070712130165</v>
+        <v>1759.070598800497</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>106.6507145434474</v>
+        <v>95.65650240408988</v>
       </c>
     </row>
     <row r="21">
@@ -783,16 +783,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>15889.57355409733</v>
+        <v>15889.60276577839</v>
       </c>
       <c r="C21" t="n">
-        <v>1694.42688422839</v>
+        <v>1694.423516452297</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>104.0893258015865</v>
+        <v>93.07767754011084</v>
       </c>
     </row>
     <row r="22">
@@ -800,16 +800,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>16388.35186009666</v>
+        <v>16387.63213175384</v>
       </c>
       <c r="C22" t="n">
-        <v>446.1905767657731</v>
+        <v>446.3460261474001</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.02182028003622314</v>
       </c>
       <c r="E22" t="n">
-        <v>499.0181075374703</v>
+        <v>302.9216856809824</v>
       </c>
     </row>
     <row r="23">
@@ -817,16 +817,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>14963.04166857022</v>
+        <v>14963.04129702768</v>
       </c>
       <c r="C23" t="n">
-        <v>653.9582646174358</v>
+        <v>653.9584496018197</v>
       </c>
       <c r="D23" t="n">
-        <v>6.674543788028653e-05</v>
+        <v>0.0002531174081795619</v>
       </c>
       <c r="E23" t="n">
-        <v>81.27071133837939</v>
+        <v>61.34448358705878</v>
       </c>
     </row>
     <row r="24">
@@ -834,16 +834,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>13154.66273355645</v>
+        <v>13154.66258600361</v>
       </c>
       <c r="C24" t="n">
-        <v>861.3372650176779</v>
+        <v>861.3373381229422</v>
       </c>
       <c r="D24" t="n">
-        <v>1.826090272170557e-06</v>
+        <v>7.579766058523845e-05</v>
       </c>
       <c r="E24" t="n">
-        <v>70.70189558575355</v>
+        <v>59.91139159398467</v>
       </c>
     </row>
     <row r="25">
@@ -851,16 +851,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11515.70052505849</v>
+        <v>11515.70049077949</v>
       </c>
       <c r="C25" t="n">
-        <v>1086.299498619586</v>
+        <v>1086.299503638177</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>5.576741621849237e-06</v>
       </c>
       <c r="E25" t="n">
-        <v>62.15338921920153</v>
+        <v>51.1553648705191</v>
       </c>
     </row>
     <row r="26">
@@ -868,16 +868,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>10516.28180844502</v>
+        <v>10516.22173452536</v>
       </c>
       <c r="C26" t="n">
-        <v>1167.772655899202</v>
+        <v>1167.777320272808</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.0009442599023125357</v>
       </c>
       <c r="E26" t="n">
-        <v>44.45433740775337</v>
+        <v>28.55151621181689</v>
       </c>
     </row>
     <row r="27">
@@ -885,16 +885,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>10291.25045947524</v>
+        <v>10291.22485278373</v>
       </c>
       <c r="C27" t="n">
-        <v>922.7676494286012</v>
+        <v>922.7718388447737</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>0.003305069361686585</v>
       </c>
       <c r="E27" t="n">
-        <v>44.4973923283236</v>
+        <v>27.47141107346049</v>
       </c>
     </row>
     <row r="28">
@@ -902,16 +902,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9890.532076095304</v>
+        <v>9890.525370782792</v>
       </c>
       <c r="C28" t="n">
-        <v>1109.466195825588</v>
+        <v>1109.469260694723</v>
       </c>
       <c r="D28" t="n">
-        <v>0.001726357479879464</v>
+        <v>0.005363168275927326</v>
       </c>
       <c r="E28" t="n">
-        <v>44.31843357607595</v>
+        <v>26.33687949890911</v>
       </c>
     </row>
     <row r="29">
@@ -919,16 +919,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>9968.395688261295</v>
+        <v>9968.485784238355</v>
       </c>
       <c r="C29" t="n">
-        <v>972.5931745811022</v>
+        <v>972.5766837099238</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01112610549550348</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>44.38505056281203</v>
+        <v>26.5076962083338</v>
       </c>
     </row>
     <row r="30">
@@ -936,16 +936,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>10400.43709333769</v>
+        <v>10400.42636084328</v>
       </c>
       <c r="C30" t="n">
-        <v>838.5922770001531</v>
+        <v>838.5926352497877</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>44.43889527075729</v>
+        <v>28.02911918093698</v>
       </c>
     </row>
     <row r="31">
@@ -953,16 +953,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>11187.43733418442</v>
+        <v>11187.44155664049</v>
       </c>
       <c r="C31" t="n">
-        <v>1149.561550482986</v>
+        <v>1149.559591639737</v>
       </c>
       <c r="D31" t="n">
-        <v>0.001114050615499491</v>
+        <v>0.0003477335891667448</v>
       </c>
       <c r="E31" t="n">
-        <v>49.50736664413375</v>
+        <v>35.13338122864889</v>
       </c>
     </row>
     <row r="32">
@@ -970,16 +970,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>13317.01818297554</v>
+        <v>13316.34426639399</v>
       </c>
       <c r="C32" t="n">
-        <v>1025.589226532797</v>
+        <v>1025.673863232802</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>816.8587946391048</v>
+        <v>59.30476071803503</v>
       </c>
     </row>
     <row r="33">
@@ -987,16 +987,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>15134.13157897642</v>
+        <v>15134.11609921056</v>
       </c>
       <c r="C33" t="n">
-        <v>779.8823428125891</v>
+        <v>779.8838007326634</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>9.995740418247376e-05</v>
       </c>
       <c r="E33" t="n">
-        <v>101.7399996205362</v>
+        <v>63.74379438641249</v>
       </c>
     </row>
     <row r="34">
@@ -1004,16 +1004,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15613.93157749889</v>
+        <v>15613.94263391583</v>
       </c>
       <c r="C34" t="n">
-        <v>799.318737507631</v>
+        <v>799.3178050445522</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>655.729271860487</v>
+        <v>659.6269464370454</v>
       </c>
     </row>
     <row r="35">
@@ -1021,16 +1021,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>15936.25176178605</v>
+        <v>15936.70938328169</v>
       </c>
       <c r="C35" t="n">
-        <v>649.1197011315098</v>
+        <v>649.0749506907537</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>106.3706379432573</v>
+        <v>95.38475464403301</v>
       </c>
     </row>
     <row r="36">
@@ -1038,16 +1038,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>16200.62293779448</v>
+        <v>16200.60981586542</v>
       </c>
       <c r="C36" t="n">
-        <v>490.3914088456913</v>
+        <v>490.3931069147071</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>302.0832365649157</v>
+        <v>291.0759590191755</v>
       </c>
     </row>
     <row r="37">
@@ -1055,16 +1055,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>16164.29154753955</v>
+        <v>16164.2968078503</v>
       </c>
       <c r="C37" t="n">
-        <v>487.1365705785436</v>
+        <v>487.1362730570622</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>366.3248309560822</v>
+        <v>399.1150994171223</v>
       </c>
     </row>
     <row r="38">
@@ -1072,16 +1072,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>15904.31841666177</v>
+        <v>15904.26697081771</v>
       </c>
       <c r="C38" t="n">
-        <v>574.7265390033945</v>
+        <v>574.7327428315677</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>0.0002860650975854767</v>
       </c>
       <c r="E38" t="n">
-        <v>106.2053871835816</v>
+        <v>95.21253679223126</v>
       </c>
     </row>
     <row r="39">
@@ -1089,16 +1089,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>15635.84864212206</v>
+        <v>15635.86929854561</v>
       </c>
       <c r="C39" t="n">
-        <v>731.1510145930265</v>
+        <v>731.1485100608973</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0003429419825121391</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>102.9978125420301</v>
+        <v>92.00322629600068</v>
       </c>
     </row>
     <row r="40">
@@ -1106,16 +1106,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>15337.68524708912</v>
+        <v>15337.68422834455</v>
       </c>
       <c r="C40" t="n">
-        <v>835.3145919894457</v>
+        <v>835.3151014806997</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0001607606881228077</v>
+        <v>0.0006695055420015385</v>
       </c>
       <c r="E40" t="n">
-        <v>101.7879387099804</v>
+        <v>90.78983959733389</v>
       </c>
     </row>
     <row r="41">
@@ -1123,16 +1123,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>15195.19463465443</v>
+        <v>15195.1796047229</v>
       </c>
       <c r="C41" t="n">
-        <v>898.8190553838004</v>
+        <v>898.8205824065099</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>82.4823028236773</v>
+        <v>63.38885335182952</v>
       </c>
     </row>
     <row r="42">
@@ -1140,16 +1140,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>15306.2709277533</v>
+        <v>15306.26899472435</v>
       </c>
       <c r="C42" t="n">
-        <v>918.7307716398149</v>
+        <v>918.7309863108181</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1.894611084497185e-05</v>
       </c>
       <c r="E42" t="n">
-        <v>101.6813849647738</v>
+        <v>90.68440639707531</v>
       </c>
     </row>
     <row r="43">
@@ -1157,16 +1157,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>15498.34428872053</v>
+        <v>15498.34982698835</v>
       </c>
       <c r="C43" t="n">
-        <v>1014.65317960791</v>
+        <v>1014.650592282762</v>
       </c>
       <c r="D43" t="n">
-        <v>0.002529142709928833</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>102.3339707148382</v>
+        <v>91.33323878048149</v>
       </c>
     </row>
     <row r="44">
@@ -1174,16 +1174,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>15951.346469781</v>
+        <v>15951.34821148867</v>
       </c>
       <c r="C44" t="n">
-        <v>1050.720100171542</v>
+        <v>1050.71989454685</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>781.2699585289679</v>
+        <v>804.1486350580088</v>
       </c>
     </row>
     <row r="45">
@@ -1191,16 +1191,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>15733.99766326515</v>
+        <v>15734.00992486631</v>
       </c>
       <c r="C45" t="n">
-        <v>989.9969269576753</v>
+        <v>989.9913407599448</v>
       </c>
       <c r="D45" t="n">
-        <v>0.005404373336913546</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>103.5409103751476</v>
+        <v>92.42432513552069</v>
       </c>
     </row>
     <row r="46">
@@ -1208,16 +1208,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>15271.79135208079</v>
+        <v>15271.77397108216</v>
       </c>
       <c r="C46" t="n">
-        <v>809.2239434033204</v>
+        <v>809.2259605384454</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>6.831114511275842e-05</v>
       </c>
       <c r="E46" t="n">
-        <v>102.1164158404107</v>
+        <v>90.70609498698973</v>
       </c>
     </row>
     <row r="47">
@@ -1225,16 +1225,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>14331.28110194581</v>
+        <v>14331.27993501657</v>
       </c>
       <c r="C47" t="n">
-        <v>845.7198698930185</v>
+        <v>845.7200113626802</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>5.356715755720541e-05</v>
       </c>
       <c r="E47" t="n">
-        <v>71.78265896081196</v>
+        <v>60.89056102772315</v>
       </c>
     </row>
     <row r="48">
@@ -1242,16 +1242,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>13102.02861196731</v>
+        <v>13102.03039767452</v>
       </c>
       <c r="C48" t="n">
-        <v>770.9706741293267</v>
+        <v>770.9699336759822</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0007131902670171357</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>70.39452076318712</v>
+        <v>59.39630929863732</v>
       </c>
     </row>
     <row r="49">
@@ -1259,16 +1259,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>11822.44307658574</v>
+        <v>11822.44293751569</v>
       </c>
       <c r="C49" t="n">
-        <v>777.5570543792339</v>
+        <v>777.557062290876</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>2.183387458936846e-07</v>
       </c>
       <c r="E49" t="n">
-        <v>63.47781904678367</v>
+        <v>52.47977805778243</v>
       </c>
     </row>
     <row r="50">
@@ -1276,16 +1276,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>10851.05607888215</v>
+        <v>10851.05607913316</v>
       </c>
       <c r="C50" t="n">
-        <v>837.9439238065788</v>
+        <v>837.9439241369398</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>46.12344138663791</v>
+        <v>29.63209635639312</v>
       </c>
     </row>
     <row r="51">
@@ -1293,16 +1293,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>10318.49323320123</v>
+        <v>10318.49322763617</v>
       </c>
       <c r="C51" t="n">
-        <v>832.5067664658388</v>
+        <v>832.5067692844798</v>
       </c>
       <c r="D51" t="n">
-        <v>3.326233535692872e-07</v>
+        <v>3.076284773505728e-06</v>
       </c>
       <c r="E51" t="n">
-        <v>44.40500860635924</v>
+        <v>27.34355643239011</v>
       </c>
     </row>
     <row r="52">
@@ -1310,16 +1310,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>10335.21494355666</v>
+        <v>10335.21491347479</v>
       </c>
       <c r="C52" t="n">
-        <v>518.7850711641524</v>
+        <v>518.7850807649461</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>8.874795539656585e-06</v>
       </c>
       <c r="E52" t="n">
-        <v>44.4720943373121</v>
+        <v>27.43760390950234</v>
       </c>
     </row>
     <row r="53">
@@ -1327,16 +1327,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>10324.9661991288</v>
+        <v>10324.9665866779</v>
       </c>
       <c r="C53" t="n">
-        <v>403.0338004945799</v>
+        <v>403.0337752673422</v>
       </c>
       <c r="D53" t="n">
-        <v>3.762120486601927e-07</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>44.46964747099499</v>
+        <v>27.38072142817482</v>
       </c>
     </row>
     <row r="54">
@@ -1344,16 +1344,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>10335.30635629175</v>
+        <v>10335.30630991521</v>
       </c>
       <c r="C54" t="n">
-        <v>469.693646193297</v>
+        <v>469.6936675841932</v>
       </c>
       <c r="D54" t="n">
-        <v>1.308880709771884e-07</v>
+        <v>2.247812501152956e-05</v>
       </c>
       <c r="E54" t="n">
-        <v>44.47211609576419</v>
+        <v>27.43985257761313</v>
       </c>
     </row>
     <row r="55">
@@ -1361,16 +1361,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>10568.10078603555</v>
+        <v>10568.10079289504</v>
       </c>
       <c r="C55" t="n">
-        <v>581.8992236791323</v>
+        <v>581.8992228417957</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>44.47836051480513</v>
+        <v>28.56085915336096</v>
       </c>
     </row>
     <row r="56">
@@ -1378,16 +1378,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11334.26513746724</v>
+        <v>11334.2651990957</v>
       </c>
       <c r="C56" t="n">
-        <v>524.7348616769652</v>
+        <v>524.7348606294502</v>
       </c>
       <c r="D56" t="n">
-        <v>1.273059325024012e-06</v>
+        <v>1.871266727887104e-07</v>
       </c>
       <c r="E56" t="n">
-        <v>50.61249541168331</v>
+        <v>39.61457377880244</v>
       </c>
     </row>
     <row r="57">
@@ -1395,16 +1395,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>12610.37312529196</v>
+        <v>12610.37088491277</v>
       </c>
       <c r="C57" t="n">
-        <v>458.6270977854214</v>
+        <v>458.6281140349005</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>0.001000052330615134</v>
       </c>
       <c r="E57" t="n">
-        <v>69.40159130500047</v>
+        <v>58.36733061635679</v>
       </c>
     </row>
     <row r="58">
@@ -1412,16 +1412,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>13700.01407063702</v>
+        <v>13699.99470067635</v>
       </c>
       <c r="C58" t="n">
-        <v>538.2054810055618</v>
+        <v>538.206281692426</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>1123.156674510295</v>
+        <v>1102.992054107328</v>
       </c>
     </row>
     <row r="59">
@@ -1429,16 +1429,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>14525.18270292354</v>
+        <v>14525.19342662474</v>
       </c>
       <c r="C59" t="n">
-        <v>476.8167358650869</v>
+        <v>476.8153616701425</v>
       </c>
       <c r="D59" t="n">
-        <v>0.000560651790557329</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>74.10558489201756</v>
+        <v>60.41168324193526</v>
       </c>
     </row>
     <row r="60">
@@ -1446,16 +1446,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>14776.17926724606</v>
+        <v>14774.92537994968</v>
       </c>
       <c r="C60" t="n">
-        <v>461.0097548347257</v>
+        <v>461.093939662101</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>102.0946523821275</v>
+        <v>60.52646552159965</v>
       </c>
     </row>
     <row r="61">
@@ -1463,16 +1463,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>14775.88278550947</v>
+        <v>14776.14998086759</v>
       </c>
       <c r="C61" t="n">
-        <v>436.9825648483593</v>
+        <v>436.8489385243517</v>
       </c>
       <c r="D61" t="n">
-        <v>0.1345152487348454</v>
+        <v>0.001079528503564976</v>
       </c>
       <c r="E61" t="n">
-        <v>101.9118668204935</v>
+        <v>60.37116964622526</v>
       </c>
     </row>
     <row r="62">
@@ -1480,16 +1480,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>14595.34476211662</v>
+        <v>14595.38904970708</v>
       </c>
       <c r="C62" t="n">
-        <v>354.6548883282886</v>
+        <v>354.6508173473052</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0004010594799717699</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>72.275813708092</v>
+        <v>60.36600046250134</v>
       </c>
     </row>
     <row r="63">
@@ -1497,16 +1497,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>14383.32851064296</v>
+        <v>14383.34250322702</v>
       </c>
       <c r="C63" t="n">
-        <v>242.6721299201212</v>
+        <v>242.670907087924</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>71.90275839938299</v>
+        <v>59.82379691967834</v>
       </c>
     </row>
     <row r="64">
@@ -1514,16 +1514,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>14156.65898702564</v>
+        <v>14156.66751569808</v>
       </c>
       <c r="C64" t="n">
-        <v>194.3410084360418</v>
+        <v>194.3403293073378</v>
       </c>
       <c r="D64" t="n">
-        <v>4.533841813649565e-06</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>71.09590906196692</v>
+        <v>59.23002863121448</v>
       </c>
     </row>
     <row r="65">
@@ -1531,16 +1531,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>14066.20266244501</v>
+        <v>14066.19513472922</v>
       </c>
       <c r="C65" t="n">
-        <v>167.7973283097533</v>
+        <v>167.8011392810558</v>
       </c>
       <c r="D65" t="n">
-        <v>9.23619509078206e-06</v>
+        <v>0.003722267747796816</v>
       </c>
       <c r="E65" t="n">
-        <v>70.83860749397137</v>
+        <v>59.07026316108936</v>
       </c>
     </row>
     <row r="66">
@@ -1548,16 +1548,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>14264.135335621</v>
+        <v>14264.14040195059</v>
       </c>
       <c r="C66" t="n">
-        <v>217.8646988208877</v>
+        <v>217.8642966461901</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>71.46107728961763</v>
+        <v>59.43775430721151</v>
       </c>
     </row>
     <row r="67">
@@ -1565,16 +1565,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>14585.75172672531</v>
+        <v>14585.75804825146</v>
       </c>
       <c r="C67" t="n">
-        <v>398.2482985704802</v>
+        <v>398.2477681975263</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>101.7127235498786</v>
+        <v>60.31993845770862</v>
       </c>
     </row>
     <row r="68">
@@ -1582,16 +1582,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>14761.34293440659</v>
+        <v>14761.45596623088</v>
       </c>
       <c r="C68" t="n">
-        <v>870.2445522273198</v>
+        <v>870.2250448513714</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>652.6733280327991</v>
+        <v>363.8034687153336</v>
       </c>
     </row>
     <row r="69">
@@ -1599,16 +1599,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>14299.271660651</v>
+        <v>14300.01077249093</v>
       </c>
       <c r="C69" t="n">
-        <v>1194.728339885438</v>
+        <v>1194.629414872913</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>71.58045552575318</v>
+        <v>572.7124088366641</v>
       </c>
     </row>
     <row r="70">
@@ -1616,16 +1616,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>13608.10582925446</v>
+        <v>13608.14042189769</v>
       </c>
       <c r="C70" t="n">
-        <v>1360.894173735386</v>
+        <v>1360.893815294876</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>70.98959432249356</v>
+        <v>59.49414848131645</v>
       </c>
     </row>
     <row r="71">
@@ -1633,16 +1633,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>12729.50230392505</v>
+        <v>12729.50372539257</v>
       </c>
       <c r="C71" t="n">
-        <v>1468.497697988571</v>
+        <v>1468.497600922709</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>70.81546356695731</v>
+        <v>58.92841391662651</v>
       </c>
     </row>
     <row r="72">
@@ -1650,16 +1650,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>11667.11928408303</v>
+        <v>11667.12004139162</v>
       </c>
       <c r="C72" t="n">
-        <v>1511.880712028216</v>
+        <v>1511.880660681271</v>
       </c>
       <c r="D72" t="n">
-        <v>3.884909034666872e-06</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>63.03766691532515</v>
+        <v>52.04932664136713</v>
       </c>
     </row>
     <row r="73">
@@ -1667,16 +1667,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>10942.50090762357</v>
+        <v>10942.50089912949</v>
       </c>
       <c r="C73" t="n">
-        <v>1176.499103209675</v>
+        <v>1176.499104031901</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>1.029846380866816e-07</v>
       </c>
       <c r="E73" t="n">
-        <v>48.91953302191659</v>
+        <v>30.09878217142239</v>
       </c>
     </row>
     <row r="74">
@@ -1684,16 +1684,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>10347.55665190744</v>
+        <v>10347.55592596701</v>
       </c>
       <c r="C74" t="n">
-        <v>849.4433231012572</v>
+        <v>849.4436867195315</v>
       </c>
       <c r="D74" t="n">
-        <v>2.496635974084184e-05</v>
+        <v>0.0003869265510815364</v>
       </c>
       <c r="E74" t="n">
-        <v>46.89868935951457</v>
+        <v>27.8095687147528</v>
       </c>
     </row>
     <row r="75">
@@ -1701,16 +1701,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9560.459168845848</v>
+        <v>9560.453729384437</v>
       </c>
       <c r="C75" t="n">
-        <v>708.5464126797553</v>
+        <v>708.5467167288539</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>41.61803929859904</v>
+        <v>25.91261270241407</v>
       </c>
     </row>
     <row r="76">
@@ -1718,16 +1718,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>10057.85867130454</v>
+        <v>10057.85875567742</v>
       </c>
       <c r="C76" t="n">
-        <v>553.1413281616535</v>
+        <v>553.1413199949711</v>
       </c>
       <c r="D76" t="n">
-        <v>5.332854303030061e-07</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>44.505820863801</v>
+        <v>26.9742671117618</v>
       </c>
     </row>
     <row r="77">
@@ -1735,16 +1735,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9909.279024355823</v>
+        <v>9909.279802043799</v>
       </c>
       <c r="C77" t="n">
-        <v>416.720641454774</v>
+        <v>416.7202956595352</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0003338555818982117</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>44.40606735790575</v>
+        <v>26.597088391985</v>
       </c>
     </row>
     <row r="78">
@@ -1752,16 +1752,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9804.274525308723</v>
+        <v>9804.274997126589</v>
       </c>
       <c r="C78" t="n">
-        <v>457.7252394619358</v>
+        <v>457.7250004480172</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0002349943886704435</v>
+        <v>2.422975155373365e-06</v>
       </c>
       <c r="E78" t="n">
-        <v>44.38659184907419</v>
+        <v>26.37515059009325</v>
       </c>
     </row>
     <row r="79">
@@ -1769,16 +1769,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9857.855054093508</v>
+        <v>9857.855618673813</v>
       </c>
       <c r="C79" t="n">
-        <v>523.1446638307799</v>
+        <v>523.1443786601799</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0002817939487162417</v>
+        <v>2.66335191253007e-06</v>
       </c>
       <c r="E79" t="n">
-        <v>44.31974005327917</v>
+        <v>26.48818888712375</v>
       </c>
     </row>
     <row r="80">
@@ -1786,16 +1786,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>10125.88753141728</v>
+        <v>10125.88865082571</v>
       </c>
       <c r="C80" t="n">
-        <v>551.1120345495701</v>
+        <v>551.1115797077749</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0004335995663626826</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>44.65338630667983</v>
+        <v>27.15704139422175</v>
       </c>
     </row>
     <row r="81">
@@ -1803,16 +1803,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>10660.52571709721</v>
+        <v>10660.52359814218</v>
       </c>
       <c r="C81" t="n">
-        <v>513.476328543559</v>
+        <v>513.4764592532765</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>1.702929587888944e-05</v>
       </c>
       <c r="E81" t="n">
-        <v>45.21859834906885</v>
+        <v>28.9892137285524</v>
       </c>
     </row>
     <row r="82">
@@ -1820,16 +1820,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11526.92889329826</v>
+        <v>11527.60589595283</v>
       </c>
       <c r="C82" t="n">
-        <v>532.0710054192805</v>
+        <v>531.9987686566385</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0001011812711585131</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>62.45710974824323</v>
+        <v>1808.181327727026</v>
       </c>
     </row>
     <row r="83">
@@ -1837,16 +1837,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>12621.38803656455</v>
+        <v>12621.39509928783</v>
       </c>
       <c r="C83" t="n">
-        <v>333.6084318949323</v>
+        <v>333.6048904229011</v>
       </c>
       <c r="D83" t="n">
-        <v>0.003528012675775527</v>
+        <v>1.027899413025649e-05</v>
       </c>
       <c r="E83" t="n">
-        <v>69.66833060508291</v>
+        <v>58.50131854772052</v>
       </c>
     </row>
     <row r="84">
@@ -1854,16 +1854,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>13289.8585086012</v>
+        <v>13290.37479588442</v>
       </c>
       <c r="C84" t="n">
-        <v>304.2706710819569</v>
+        <v>304.2010246586609</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>70.27153865461145</v>
+        <v>1247.0498787756</v>
       </c>
     </row>
     <row r="85">
@@ -1871,16 +1871,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>13651.84317728561</v>
+        <v>13651.85411135391</v>
       </c>
       <c r="C85" t="n">
-        <v>310.1513114199206</v>
+        <v>310.1458088130604</v>
       </c>
       <c r="D85" t="n">
-        <v>0.005505789218555091</v>
+        <v>7.975330033905084e-05</v>
       </c>
       <c r="E85" t="n">
-        <v>70.45011718127657</v>
+        <v>59.70305787346209</v>
       </c>
     </row>
     <row r="86">
@@ -1888,16 +1888,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>13753.27319517844</v>
+        <v>13754.10983451994</v>
       </c>
       <c r="C86" t="n">
-        <v>347.7220339215389</v>
+        <v>347.6086630334358</v>
       </c>
       <c r="D86" t="n">
-        <v>0.004766134459409639</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>70.42268289156537</v>
+        <v>258.8065752525851</v>
       </c>
     </row>
     <row r="87">
@@ -1905,16 +1905,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>13629.09440640218</v>
+        <v>13628.97312768395</v>
       </c>
       <c r="C87" t="n">
-        <v>415.0197115071107</v>
+        <v>415.0288906526116</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>70.12142745084464</v>
+        <v>59.65172345378619</v>
       </c>
     </row>
     <row r="88">
@@ -1922,16 +1922,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>13450.20099282574</v>
+        <v>13450.2058645882</v>
       </c>
       <c r="C88" t="n">
-        <v>446.7963257586296</v>
+        <v>446.7938705260921</v>
       </c>
       <c r="D88" t="n">
-        <v>0.002678737168870222</v>
+        <v>0.0002646210803005733</v>
       </c>
       <c r="E88" t="n">
-        <v>69.91644797214195</v>
+        <v>59.21160491532205</v>
       </c>
     </row>
     <row r="89">
@@ -1939,16 +1939,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>13515.90351360681</v>
+        <v>13515.91049461867</v>
       </c>
       <c r="C89" t="n">
-        <v>302.0940530874699</v>
+        <v>302.0913922460162</v>
       </c>
       <c r="D89" t="n">
-        <v>0.002430875390229364</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>69.9378106541424</v>
+        <v>59.38173159466004</v>
       </c>
     </row>
     <row r="90">
@@ -1956,16 +1956,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>13786.92005154211</v>
+        <v>13786.92163292245</v>
       </c>
       <c r="C90" t="n">
-        <v>257.0791001946219</v>
+        <v>257.0782900610837</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0008474160343922342</v>
+        <v>7.693950419887718e-05</v>
       </c>
       <c r="E90" t="n">
-        <v>70.48001159419178</v>
+        <v>59.40238298387528</v>
       </c>
     </row>
     <row r="91">
@@ -1973,16 +1973,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>14003.55625257577</v>
+        <v>14003.55710657266</v>
       </c>
       <c r="C91" t="n">
-        <v>531.4444028408949</v>
+        <v>531.4442978771468</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>70.90407476039907</v>
+        <v>59.63587678811407</v>
       </c>
     </row>
     <row r="92">
@@ -1990,16 +1990,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>14290.39926339224</v>
+        <v>14290.36510908612</v>
       </c>
       <c r="C92" t="n">
-        <v>706.6317932309464</v>
+        <v>706.6347299194199</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>0.0001608335850708528</v>
       </c>
       <c r="E92" t="n">
-        <v>71.52424056946317</v>
+        <v>60.00311344662648</v>
       </c>
     </row>
     <row r="93">
@@ -2007,16 +2007,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>14814.84942919493</v>
+        <v>14814.72593591036</v>
       </c>
       <c r="C93" t="n">
-        <v>819.3022226752125</v>
+        <v>819.3177733368273</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>910.8830060981199</v>
+        <v>981.8076977733983</v>
       </c>
     </row>
     <row r="94">
@@ -2024,16 +2024,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>14723.20772310042</v>
+        <v>14723.53327542053</v>
       </c>
       <c r="C94" t="n">
-        <v>834.7901794117111</v>
+        <v>834.7379301682603</v>
       </c>
       <c r="D94" t="n">
-        <v>0.002095392517815455</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>101.7254182382152</v>
+        <v>509.1455854106197</v>
       </c>
     </row>
     <row r="95">
@@ -2041,16 +2041,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>13952.20787367131</v>
+        <v>13952.29582298917</v>
       </c>
       <c r="C95" t="n">
-        <v>697.7921731019264</v>
+        <v>697.7854205859376</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>71.30444438406637</v>
+        <v>60.20058999700059</v>
       </c>
     </row>
     <row r="96">
@@ -2058,16 +2058,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12811.67873122004</v>
+        <v>12811.67228125757</v>
       </c>
       <c r="C96" t="n">
-        <v>658.3212524197265</v>
+        <v>658.3251659087528</v>
       </c>
       <c r="D96" t="n">
-        <v>1.634388017498085e-05</v>
+        <v>0.003910048606955109</v>
       </c>
       <c r="E96" t="n">
-        <v>70.42534571336603</v>
+        <v>59.17300032532739</v>
       </c>
     </row>
     <row r="97">
@@ -2075,16 +2075,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>11553.4094302875</v>
+        <v>11553.41335361541</v>
       </c>
       <c r="C97" t="n">
-        <v>724.5905701622967</v>
+        <v>724.5903152776873</v>
       </c>
       <c r="D97" t="n">
-        <v>1.605070394079892e-07</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>62.3736109111559</v>
+        <v>51.55654444139763</v>
       </c>
     </row>
     <row r="98">
@@ -2092,16 +2092,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>11014.1825061754</v>
+        <v>11014.16249127429</v>
       </c>
       <c r="C98" t="n">
-        <v>669.8174940205735</v>
+        <v>669.8275467298446</v>
       </c>
       <c r="D98" t="n">
-        <v>2.920800111206011e-08</v>
+        <v>0.00995204653538153</v>
       </c>
       <c r="E98" t="n">
-        <v>49.04519567614869</v>
+        <v>30.57351347108029</v>
       </c>
     </row>
     <row r="99">
@@ -2109,16 +2109,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>10540.55414009413</v>
+        <v>10540.55316077155</v>
       </c>
       <c r="C99" t="n">
-        <v>673.4458590003164</v>
+        <v>673.4463688176502</v>
       </c>
       <c r="D99" t="n">
-        <v>9.046727261186409e-07</v>
+        <v>0.0004699418370702787</v>
       </c>
       <c r="E99" t="n">
-        <v>44.49877339566515</v>
+        <v>28.46200858647568</v>
       </c>
     </row>
     <row r="100">
@@ -2126,16 +2126,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>10476.72525386602</v>
+        <v>10476.73330171424</v>
       </c>
       <c r="C100" t="n">
-        <v>523.2747563778892</v>
+        <v>523.2742232924645</v>
       </c>
       <c r="D100" t="n">
-        <v>4.112671651826388e-07</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>44.49406536208074</v>
+        <v>28.24192177080451</v>
       </c>
     </row>
     <row r="101">
@@ -2143,16 +2143,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>10607.37762067016</v>
+        <v>10607.44757879036</v>
       </c>
       <c r="C101" t="n">
-        <v>333.6223726390908</v>
+        <v>333.6180106363104</v>
       </c>
       <c r="D101" t="n">
-        <v>6.684060604607214e-06</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>44.51409736590153</v>
+        <v>28.68969599255701</v>
       </c>
     </row>
     <row r="102">
@@ -2160,16 +2160,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>10870.25229059385</v>
+        <v>10870.46586616663</v>
       </c>
       <c r="C102" t="n">
-        <v>368.7479775083693</v>
+        <v>368.7346192156349</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>46.15457103412313</v>
+        <v>29.74990509619623</v>
       </c>
     </row>
     <row r="103">
@@ -2177,16 +2177,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>11902.24382440093</v>
+        <v>11902.34919509785</v>
       </c>
       <c r="C103" t="n">
-        <v>434.7685996547685</v>
+        <v>434.7639774349094</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>63.98678922763919</v>
+        <v>52.89178842876589</v>
       </c>
     </row>
     <row r="104">
@@ -2194,16 +2194,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>13884.60670692673</v>
+        <v>13885.69944961095</v>
       </c>
       <c r="C104" t="n">
-        <v>457.4633255743127</v>
+        <v>457.327767624836</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>1214.200097996259</v>
+        <v>1152.788535544076</v>
       </c>
     </row>
     <row r="105">
@@ -2211,16 +2211,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>15478.16202459004</v>
+        <v>15478.30443275975</v>
       </c>
       <c r="C105" t="n">
-        <v>435.7588476676671</v>
+        <v>435.6873586837733</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0790486977083048</v>
+        <v>0.008200311298141919</v>
       </c>
       <c r="E105" t="n">
-        <v>103.0689492313652</v>
+        <v>91.47039132638987</v>
       </c>
     </row>
     <row r="106">
@@ -2228,16 +2228,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>16088.84636432303</v>
+        <v>16088.80981246233</v>
       </c>
       <c r="C106" t="n">
-        <v>324.6897256089026</v>
+        <v>324.6919260916097</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>286.8313167756987</v>
+        <v>422.3942868675854</v>
       </c>
     </row>
     <row r="107">
@@ -2245,16 +2245,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>16320.37118966638</v>
+        <v>16320.37040412157</v>
       </c>
       <c r="C107" t="n">
-        <v>264.6289833272684</v>
+        <v>264.6292924015305</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>0.0003031736121980914</v>
       </c>
       <c r="E107" t="n">
-        <v>186.7925537141554</v>
+        <v>158.700205378278</v>
       </c>
     </row>
     <row r="108">
@@ -2262,16 +2262,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>16448.60475341348</v>
+        <v>16448.60147838472</v>
       </c>
       <c r="C108" t="n">
-        <v>242.3952423008133</v>
+        <v>242.3968605411058</v>
       </c>
       <c r="D108" t="n">
-        <v>4.281437756640371e-06</v>
+        <v>0.001659414544566905</v>
       </c>
       <c r="E108" t="n">
-        <v>302.108685523111</v>
+        <v>290.3637905918307</v>
       </c>
     </row>
     <row r="109">
@@ -2279,16 +2279,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>16422.08374233888</v>
+        <v>16422.25444590188</v>
       </c>
       <c r="C109" t="n">
-        <v>229.3762546891366</v>
+        <v>229.3424875747375</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>325.1899315665315</v>
+        <v>285.5579482289075</v>
       </c>
     </row>
     <row r="110">
@@ -2296,16 +2296,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>16260.26973139314</v>
+        <v>16260.82360910388</v>
       </c>
       <c r="C110" t="n">
-        <v>218.730269795588</v>
+        <v>218.6239772957567</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>185.0959672790559</v>
+        <v>454.2109552271197</v>
       </c>
     </row>
     <row r="111">
@@ -2313,16 +2313,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>16158.80874306337</v>
+        <v>16158.62425823318</v>
       </c>
       <c r="C111" t="n">
-        <v>208.554883964653</v>
+        <v>208.5891576432644</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>407.9219573136021</v>
+        <v>684.4116748287828</v>
       </c>
     </row>
     <row r="112">
@@ -2330,16 +2330,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>15945.9896746692</v>
+        <v>15946.34443682494</v>
       </c>
       <c r="C112" t="n">
-        <v>227.0100949214126</v>
+        <v>226.934494351055</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0002301792456381677</v>
+        <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>106.221350845936</v>
+        <v>551.1566438828564</v>
       </c>
     </row>
     <row r="113">
@@ -2347,16 +2347,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>15873.4089337675</v>
+        <v>15873.35896001815</v>
       </c>
       <c r="C113" t="n">
-        <v>220.5911437354762</v>
+        <v>220.6161075134776</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>0.02490756225798946</v>
       </c>
       <c r="E113" t="n">
-        <v>103.9315064787849</v>
+        <v>92.94783002502182</v>
       </c>
     </row>
     <row r="114">
@@ -2364,16 +2364,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>15926.24977066505</v>
+        <v>15926.63295300765</v>
       </c>
       <c r="C114" t="n">
-        <v>298.9605563457387</v>
+        <v>298.9150718800521</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>713.6087451720304</v>
+        <v>595.3361346292826</v>
       </c>
     </row>
     <row r="115">
@@ -2381,16 +2381,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>16012.00668126678</v>
+        <v>16012.44804486588</v>
       </c>
       <c r="C115" t="n">
-        <v>500.9930157577518</v>
+        <v>500.9114567572249</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0003026727872800879</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>106.5538089584561</v>
+        <v>557.4125957222005</v>
       </c>
     </row>
     <row r="116">
@@ -2398,16 +2398,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>16561.55607560742</v>
+        <v>16561.74024028677</v>
       </c>
       <c r="C116" t="n">
-        <v>440.6040057913575</v>
+        <v>440.5675520561511</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>880.2028234049097</v>
+        <v>701.570563109025</v>
       </c>
     </row>
     <row r="117">
@@ -2415,16 +2415,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>16438.40030271596</v>
+        <v>16439.01580018249</v>
       </c>
       <c r="C117" t="n">
-        <v>285.5996866521974</v>
+        <v>285.4781061855363</v>
       </c>
       <c r="D117" t="n">
-        <v>1.062128535310722e-05</v>
+        <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>301.9250524066888</v>
+        <v>364.0637151122215</v>
       </c>
     </row>
     <row r="118">
@@ -2432,16 +2432,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>15925.45254646461</v>
+        <v>15925.52467355527</v>
       </c>
       <c r="C118" t="n">
-        <v>155.8428876641519</v>
+        <v>155.8577318610637</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>663.4392247280279</v>
+        <v>95.58449199241737</v>
       </c>
     </row>
     <row r="119">
@@ -2449,16 +2449,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>15046.97087308895</v>
+        <v>15046.97098081413</v>
       </c>
       <c r="C119" t="n">
-        <v>130.0291144684198</v>
+        <v>130.0306657719265</v>
       </c>
       <c r="D119" t="n">
-        <v>1.243023262587023e-05</v>
+        <v>0.001560988779732205</v>
       </c>
       <c r="E119" t="n">
-        <v>81.26337218281517</v>
+        <v>63.09669890082147</v>
       </c>
     </row>
     <row r="120">
@@ -2466,16 +2466,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>13780.92990133534</v>
+        <v>13780.90928190157</v>
       </c>
       <c r="C120" t="n">
-        <v>92.07074612878641</v>
+        <v>92.08076953834879</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>0.009938622432902756</v>
       </c>
       <c r="E120" t="n">
-        <v>71.71565682948506</v>
+        <v>59.84757590435221</v>
       </c>
     </row>
     <row r="121">
@@ -2483,16 +2483,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>12507.53856026388</v>
+        <v>12507.6128538275</v>
       </c>
       <c r="C121" t="n">
-        <v>92.46140890751661</v>
+        <v>92.45631166977321</v>
       </c>
       <c r="D121" t="n">
-        <v>3.079780131790737e-05</v>
+        <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>70.02955671033629</v>
+        <v>59.54607385007788</v>
       </c>
     </row>
     <row r="122">
@@ -2500,16 +2500,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>11598.30588754012</v>
+        <v>11598.29545220232</v>
       </c>
       <c r="C122" t="n">
-        <v>90.7895011754261</v>
+        <v>90.79027520459741</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>64.31754369080895</v>
+        <v>57.87603591713826</v>
       </c>
     </row>
     <row r="123">
@@ -2517,16 +2517,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>11044.92629490247</v>
+        <v>11045.03647444089</v>
       </c>
       <c r="C123" t="n">
-        <v>106.0745411700404</v>
+        <v>106.0675503189352</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>46.16879404148278</v>
+        <v>30.02111489807652</v>
       </c>
     </row>
     <row r="124">
@@ -2534,16 +2534,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>10824.57190163595</v>
+        <v>10824.5639157354</v>
       </c>
       <c r="C124" t="n">
-        <v>29.4290649314497</v>
+        <v>29.43261050559115</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>0.003470289028206949</v>
       </c>
       <c r="E124" t="n">
-        <v>46.14841898505515</v>
+        <v>28.97029851939221</v>
       </c>
     </row>
     <row r="125">
@@ -2551,16 +2551,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>10727.99996060327</v>
+        <v>10728.11423036063</v>
       </c>
       <c r="C125" t="n">
-        <v>1.310017682001028e-05</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>2.627028776412046e-05</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>44.50201193902687</v>
+        <v>28.56614265229589</v>
       </c>
     </row>
     <row r="126">
@@ -2568,7 +2568,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>10805.00199023115</v>
+        <v>10805.06459902332</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -2577,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>45.67272221423401</v>
+        <v>28.9080323501225</v>
       </c>
     </row>
     <row r="127">
@@ -2585,16 +2585,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>11149.99978550817</v>
+        <v>11149.9961167797</v>
       </c>
       <c r="C127" t="n">
-        <v>7.145858396393097e-05</v>
+        <v>0.001294238412686843</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0001428903593814618</v>
+        <v>0.002586396639445242</v>
       </c>
       <c r="E127" t="n">
-        <v>47.86039362555683</v>
+        <v>30.54434609101463</v>
       </c>
     </row>
     <row r="128">
@@ -2602,16 +2602,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>11858.99881234634</v>
+        <v>11859.10210722913</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0003953560547747791</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0007915061597611183</v>
+        <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>63.44076606584263</v>
+        <v>52.50656449047397</v>
       </c>
     </row>
     <row r="129">
@@ -2619,7 +2619,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>13069.37250400155</v>
+        <v>13069.3738306717</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -2628,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>1139.319403695614</v>
+        <v>1390.948482443642</v>
       </c>
     </row>
     <row r="130">
@@ -2636,7 +2636,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>14238.00226111339</v>
+        <v>14238.00321149309</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>71.22123278325245</v>
+        <v>60.23512551754104</v>
       </c>
     </row>
     <row r="131">
@@ -2653,7 +2653,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>15002.01876721285</v>
+        <v>15002.00029016879</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -2662,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>101.447747784619</v>
+        <v>90.70275477753852</v>
       </c>
     </row>
     <row r="132">
@@ -2670,7 +2670,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>15236.00807749571</v>
+        <v>15236.01631087254</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>101.9151041709614</v>
+        <v>90.85449270320812</v>
       </c>
     </row>
     <row r="133">
@@ -2687,16 +2687,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>15212.99834250299</v>
+        <v>15212.99816752045</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0005503296348165453</v>
+        <v>0.0006157324506534604</v>
       </c>
       <c r="D133" t="n">
-        <v>0.001106061341038866</v>
+        <v>0.001215531652438487</v>
       </c>
       <c r="E133" t="n">
-        <v>101.8196442891963</v>
+        <v>90.80969414493752</v>
       </c>
     </row>
     <row r="134">
@@ -2704,7 +2704,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>14950.00086750072</v>
+        <v>14950.05150880907</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>74.59868365339919</v>
+        <v>90.30457378678585</v>
       </c>
     </row>
     <row r="135">
@@ -2721,16 +2721,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>14625.99999312787</v>
+        <v>14625.99982333571</v>
       </c>
       <c r="C135" t="n">
-        <v>2.285845084937303e-06</v>
+        <v>5.84251465830699e-05</v>
       </c>
       <c r="D135" t="n">
-        <v>4.581706895989854e-06</v>
+        <v>0.0001181213204903752</v>
       </c>
       <c r="E135" t="n">
-        <v>72.4326928404428</v>
+        <v>60.23204060543719</v>
       </c>
     </row>
     <row r="136">
@@ -2738,16 +2738,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>14350.99997738828</v>
+        <v>14351.00016889587</v>
       </c>
       <c r="C136" t="n">
-        <v>7.534845805537833e-06</v>
+        <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>1.506183590110598e-05</v>
+        <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>71.1765028701341</v>
+        <v>59.49369715832589</v>
       </c>
     </row>
     <row r="137">
@@ -2755,16 +2755,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>14233.99998580382</v>
+        <v>14233.99984838417</v>
       </c>
       <c r="C137" t="n">
-        <v>4.740338417848719e-06</v>
+        <v>5.061430576607816e-05</v>
       </c>
       <c r="D137" t="n">
-        <v>9.446397984021194e-06</v>
+        <v>0.0001009006622733199</v>
       </c>
       <c r="E137" t="n">
-        <v>70.82887837083189</v>
+        <v>59.20422108580925</v>
       </c>
     </row>
     <row r="138">
@@ -2772,16 +2772,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>14456.55881632357</v>
+        <v>14456.56443090658</v>
       </c>
       <c r="C138" t="n">
-        <v>25.44145120434218</v>
+        <v>25.44098545685552</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>71.47550048503403</v>
+        <v>59.74667582400073</v>
       </c>
     </row>
     <row r="139">
@@ -2789,16 +2789,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>14895.29202048867</v>
+        <v>14895.29181096025</v>
       </c>
       <c r="C139" t="n">
-        <v>88.70819816421658</v>
+        <v>88.70820478448053</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>74.10566783899628</v>
+        <v>61.97475710388927</v>
       </c>
     </row>
     <row r="140">
@@ -2806,16 +2806,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>15406.33873569187</v>
+        <v>15406.51334162071</v>
       </c>
       <c r="C140" t="n">
-        <v>224.6608614591796</v>
+        <v>224.6426745915936</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0004024464924637791</v>
+        <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>102.3426033136133</v>
+        <v>91.35239116181882</v>
       </c>
     </row>
     <row r="141">
@@ -2823,16 +2823,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>15196.56249822419</v>
+        <v>15196.56949663934</v>
       </c>
       <c r="C141" t="n">
-        <v>297.456319564487</v>
+        <v>297.4603185814227</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>0.002484619515764784</v>
       </c>
       <c r="E141" t="n">
-        <v>101.8161939106895</v>
+        <v>90.86648065271481</v>
       </c>
     </row>
     <row r="142">
@@ -2840,16 +2840,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>14687.65379452522</v>
+        <v>14687.65350198784</v>
       </c>
       <c r="C142" t="n">
-        <v>281.3461990609415</v>
+        <v>281.3463460485419</v>
       </c>
       <c r="D142" t="n">
-        <v>6.407445978117032e-06</v>
+        <v>0.0001518117981305932</v>
       </c>
       <c r="E142" t="n">
-        <v>71.98200616104801</v>
+        <v>60.98571894085437</v>
       </c>
     </row>
     <row r="143">
@@ -2857,16 +2857,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>13905.4283241109</v>
+        <v>13905.42659991038</v>
       </c>
       <c r="C143" t="n">
-        <v>292.5713984358635</v>
+        <v>292.5732255411341</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0006285078179881396</v>
+        <v>0.002451211463308959</v>
       </c>
       <c r="E143" t="n">
-        <v>71.64961667909508</v>
+        <v>60.65942879565615</v>
       </c>
     </row>
     <row r="144">
@@ -2874,16 +2874,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>12915.39938890484</v>
+        <v>12915.43312753985</v>
       </c>
       <c r="C144" t="n">
-        <v>263.6101663107454</v>
+        <v>263.6078176903668</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>70.85035641764426</v>
+        <v>59.85601436170374</v>
       </c>
     </row>
     <row r="145">
@@ -2891,16 +2891,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>11868.13979962522</v>
+        <v>11868.13787781803</v>
       </c>
       <c r="C145" t="n">
-        <v>250.8602462964826</v>
+        <v>250.8612044526627</v>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>0.0009168127140980372</v>
       </c>
       <c r="E145" t="n">
-        <v>63.53071175466432</v>
+        <v>52.52836728089814</v>
       </c>
     </row>
     <row r="146">
@@ -2908,16 +2908,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>11016.16071337058</v>
+        <v>11014.17105068314</v>
       </c>
       <c r="C146" t="n">
-        <v>182.6214947602223</v>
+        <v>182.8293640336903</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>1686.624850436757</v>
+        <v>30.54358494795129</v>
       </c>
     </row>
     <row r="147">
@@ -2925,16 +2925,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>9907.012179227355</v>
+        <v>9907.03324129435</v>
       </c>
       <c r="C147" t="n">
-        <v>195.9878256943</v>
+        <v>195.986534784351</v>
       </c>
       <c r="D147" t="n">
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>41.59697163473793</v>
+        <v>26.31114622691395</v>
       </c>
     </row>
     <row r="148">
@@ -2942,16 +2942,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>10384.67652542478</v>
+        <v>10384.69387986143</v>
       </c>
       <c r="C148" t="n">
-        <v>226.3235003324591</v>
+        <v>226.3224392792754</v>
       </c>
       <c r="D148" t="n">
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>44.51398077115248</v>
+        <v>28.32893188792498</v>
       </c>
     </row>
     <row r="149">
@@ -2959,16 +2959,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>10054.62742747226</v>
+        <v>10054.62624661208</v>
       </c>
       <c r="C149" t="n">
-        <v>271.3725741847069</v>
+        <v>271.3731650895907</v>
       </c>
       <c r="D149" t="n">
-        <v>3.759206295129807e-07</v>
+        <v>0.0005877111512757242</v>
       </c>
       <c r="E149" t="n">
-        <v>44.3963594370411</v>
+        <v>26.81259688851928</v>
       </c>
     </row>
     <row r="150">
@@ -2976,16 +2976,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>10106.96735331591</v>
+        <v>10106.97505239317</v>
       </c>
       <c r="C150" t="n">
-        <v>155.0326458366908</v>
+        <v>155.032182972858</v>
       </c>
       <c r="D150" t="n">
-        <v>2.249092384160716e-06</v>
+        <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>44.43748613405248</v>
+        <v>26.94763568653862</v>
       </c>
     </row>
     <row r="151">
@@ -2993,16 +2993,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>10048.68684836635</v>
+        <v>10048.68611631714</v>
       </c>
       <c r="C151" t="n">
-        <v>332.3131857667499</v>
+        <v>332.3135386535928</v>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>0.0003446855836328015</v>
       </c>
       <c r="E151" t="n">
-        <v>44.33294460217675</v>
+        <v>26.78181283628254</v>
       </c>
     </row>
     <row r="152">
@@ -3010,16 +3010,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>10277.81955643664</v>
+        <v>10277.81678557935</v>
       </c>
       <c r="C152" t="n">
-        <v>399.1804689867047</v>
+        <v>399.1818714478762</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>0.00134163202307982</v>
       </c>
       <c r="E152" t="n">
-        <v>44.48735692266058</v>
+        <v>27.74700859905832</v>
       </c>
     </row>
     <row r="153">
@@ -3027,16 +3027,16 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>10754.19596156978</v>
+        <v>10754.21128789784</v>
       </c>
       <c r="C153" t="n">
-        <v>419.8040602564225</v>
+        <v>419.8034944136771</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>45.42576169634783</v>
+        <v>29.13707625248372</v>
       </c>
     </row>
     <row r="154">
@@ -3044,16 +3044,16 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>11716.42295051336</v>
+        <v>11716.65744006108</v>
       </c>
       <c r="C154" t="n">
-        <v>342.5772060746662</v>
+        <v>342.5624946988272</v>
       </c>
       <c r="D154" t="n">
-        <v>1.008371603617794e-05</v>
+        <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>63.35207172682875</v>
+        <v>52.41888905491873</v>
       </c>
     </row>
     <row r="155">
@@ -3061,16 +3061,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>12728.34779184732</v>
+        <v>12728.33570785539</v>
       </c>
       <c r="C155" t="n">
-        <v>226.6630613054712</v>
+        <v>226.6640297428834</v>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>0.0002621405769323141</v>
       </c>
       <c r="E155" t="n">
-        <v>69.42493062078839</v>
+        <v>58.40787632783626</v>
       </c>
     </row>
     <row r="156">
@@ -3078,16 +3078,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>13442.42643195508</v>
+        <v>13442.41911182007</v>
       </c>
       <c r="C156" t="n">
-        <v>151.5944110310727</v>
+        <v>151.5947693022126</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>1934.52517514131</v>
+        <v>1782.419967327481</v>
       </c>
     </row>
     <row r="157">
@@ -3095,16 +3095,16 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>13895.23815193122</v>
+        <v>13895.21321466943</v>
       </c>
       <c r="C157" t="n">
-        <v>66.78482432846451</v>
+        <v>66.78676137640663</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>2.393048031569175e-05</v>
       </c>
       <c r="E157" t="n">
-        <v>70.69246393625671</v>
+        <v>59.69780476707685</v>
       </c>
     </row>
     <row r="158">
@@ -3112,16 +3112,16 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>14100.99663392934</v>
+        <v>14101.86933904217</v>
       </c>
       <c r="C158" t="n">
-        <v>0.001122070642391881</v>
+        <v>0</v>
       </c>
       <c r="D158" t="n">
-        <v>0.00224175833690483</v>
+        <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>70.88272435976585</v>
+        <v>639.0407846911796</v>
       </c>
     </row>
     <row r="159">
@@ -3129,7 +3129,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>14044.01154897477</v>
+        <v>14044.00076316855</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>70.8109317633032</v>
+        <v>59.84406502064735</v>
       </c>
     </row>
     <row r="160">
@@ -3146,16 +3146,16 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>13896.99879196925</v>
+        <v>13896.99993879414</v>
       </c>
       <c r="C160" t="n">
-        <v>0.000403101024150249</v>
+        <v>1.99688883217964e-05</v>
       </c>
       <c r="D160" t="n">
-        <v>0.0008041256112109752</v>
+        <v>4.119562927007932e-05</v>
       </c>
       <c r="E160" t="n">
-        <v>70.70822679210936</v>
+        <v>59.70170316219076</v>
       </c>
     </row>
     <row r="161">
@@ -3163,7 +3163,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>13818.01268779205</v>
+        <v>13818.00026760409</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -3172,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>70.52462078222352</v>
+        <v>59.51354475332439</v>
       </c>
     </row>
     <row r="162">
@@ -3180,16 +3180,16 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>14043.99607343359</v>
+        <v>14043.99998639057</v>
       </c>
       <c r="C162" t="n">
-        <v>0.001309571249434279</v>
+        <v>4.533984261256285e-06</v>
       </c>
       <c r="D162" t="n">
-        <v>0.002614380946747945</v>
+        <v>9.066394984811152e-06</v>
       </c>
       <c r="E162" t="n">
-        <v>70.67850837974008</v>
+        <v>59.43159777861599</v>
       </c>
     </row>
     <row r="163">
@@ -3197,7 +3197,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>14535.02933599307</v>
+        <v>14535.00132808246</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="E163" t="n">
-        <v>93.58762671192443</v>
+        <v>60.22491022175786</v>
       </c>
     </row>
     <row r="164">
@@ -3214,16 +3214,16 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>14996.99993158553</v>
+        <v>14997.1344609429</v>
       </c>
       <c r="C164" t="n">
-        <v>2.408757909044843e-05</v>
+        <v>0</v>
       </c>
       <c r="D164" t="n">
-        <v>4.80798679614704e-05</v>
+        <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>82.59793289906868</v>
+        <v>90.76429932099882</v>
       </c>
     </row>
     <row r="165">
@@ -3231,16 +3231,16 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>15633.98658823094</v>
+        <v>15633.986153796</v>
       </c>
       <c r="C165" t="n">
-        <v>0.004469065875807831</v>
+        <v>0.004613211300361971</v>
       </c>
       <c r="D165" t="n">
-        <v>0.008933769571361612</v>
+        <v>0.009223769574661006</v>
       </c>
       <c r="E165" t="n">
-        <v>103.3360800606197</v>
+        <v>92.39899042824749</v>
       </c>
     </row>
     <row r="166">
@@ -3248,16 +3248,16 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>15557.98385476885</v>
+        <v>15558.80455012123</v>
       </c>
       <c r="C166" t="n">
-        <v>0.005379733399477211</v>
+        <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>0.01075474319627031</v>
+        <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>103.0453090202632</v>
+        <v>434.5489440436253</v>
       </c>
     </row>
     <row r="167">
@@ -3265,16 +3265,16 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>14650.02728158779</v>
+        <v>14649.99967395394</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>0.0001086382488849574</v>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>0.0002171906670891988</v>
       </c>
       <c r="E167" t="n">
-        <v>73.08750655042165</v>
+        <v>62.05007692232032</v>
       </c>
     </row>
     <row r="168">
@@ -3282,16 +3282,16 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>13470.00619193749</v>
+        <v>13469.99836739505</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>0.0005439839057971693</v>
       </c>
       <c r="D168" t="n">
-        <v>0</v>
+        <v>0.001087533606245024</v>
       </c>
       <c r="E168" t="n">
-        <v>70.54577803835856</v>
+        <v>59.55285234722398</v>
       </c>
     </row>
     <row r="169">
@@ -3299,7 +3299,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>12278.00033093707</v>
+        <v>12278.00031401007</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="E169" t="n">
-        <v>101.2525749909822</v>
+        <v>90.25388240904232</v>
       </c>
     </row>
   </sheetData>
